--- a/biology/Botanique/Mammillaria_grahamii/Mammillaria_grahamii.xlsx
+++ b/biology/Botanique/Mammillaria_grahamii/Mammillaria_grahamii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mammillaria grahamii est un cactus à fleurs roses qui se rencontre dans le sud des États-Unis (Californie, Arizona, Nouveau-Mexique et Texas) et au Mexique (Chihuahua, Sinaloa et Sonora).
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Mammillaria grahamii présente généralement une ou plusieurs tiges sphériques ou cylindriques de 7 à 20 cm voire davantage de long (15 cm en moyenne) et de 3,8 à 7,5 cm de large, garnies de nombreuses épines en forme de crochet. Ces épines ont une longueur de 6 à 13 mm et sont disposées en paquets : les 3 ou 4 épines centrales, d'environ 1,3 cm de long, de couleur rougeâtre à brun-violacé et généralement en forme de crochet, sont entourées de 18 à 35 épines plus courtes, droites, de couleur gris clair ou beige rosé.
-Appareil reproducteur
-Les fleurs sont de couleur rose ou rose violacé. Elles ont un diamètre de 1,8 à 3 cm et de nombreux tépales longs de 1,2 à 1,5 cm. Le fruit est long, lisse, rouge à maturité; il mesure de 1,3 à 2,5 cm de long. La floraison a lieu d'avril à mai en milieu naturel[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mammillaria grahamii présente généralement une ou plusieurs tiges sphériques ou cylindriques de 7 à 20 cm voire davantage de long (15 cm en moyenne) et de 3,8 à 7,5 cm de large, garnies de nombreuses épines en forme de crochet. Ces épines ont une longueur de 6 à 13 mm et sont disposées en paquets : les 3 ou 4 épines centrales, d'environ 1,3 cm de long, de couleur rougeâtre à brun-violacé et généralement en forme de crochet, sont entourées de 18 à 35 épines plus courtes, droites, de couleur gris clair ou beige rosé.
 </t>
         </is>
       </c>
@@ -542,13 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce cactus se trouve du sud-est de la Californie et à l'ouest du Texas, aux États-Unis, jusqu'au nord du Mexique.
-Il préfère les sols secs et bien drainés, dans les déserts ou les plaines arides[1]. On le trouve généralement entre 300 et 900 m d'altitude, souvent en association avec la communauté végétale "Larrea tridentata"[2].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont de couleur rose ou rose violacé. Elles ont un diamètre de 1,8 à 3 cm et de nombreux tépales longs de 1,2 à 1,5 cm. Le fruit est long, lisse, rouge à maturité; il mesure de 1,3 à 2,5 cm de long. La floraison a lieu d'avril à mai en milieu naturel.
 </t>
         </is>
       </c>
@@ -574,17 +594,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Systématique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été décrite par le médecin et botaniste d'origine allemande George Engelmann en 1856 dans "Proceedings of the American Academy of Arts and Sciences"[3].
-Cette espèce a été appelée par certains auteurs Mammillaria microcarpa (Engelmann)[1] ou Mammillaria milleri ((Britton &amp; Rose) Bödecker)[4] ou encore Mammillaria oliviae (Orcutt)[5]. Elle a aussi reçu les appellations Cactus grahamii (Engelm.) Kuntze 1891 et Coryphantha grahamii (Engelm.) Rydb. 1917[3]. En 1991, Roy Mottram a proposé de considérer ce cactus comme une sous-espèce, Mammillaria microcarpa ssp. grahamii, mais cette proposition est très généralement reconnue comme non valide[3].
-Elle présente deux variétés[6]:
-Mammillaria grahamii var. grahamii (Engelm.)
-Mammillaria grahamii var. oliviae (Orcutt) Benson L.
-Ces deux variétés bénéficient de mesure de protection dans l'État de l'Arizona[7].
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cactus se trouve du sud-est de la Californie et à l'ouest du Texas, aux États-Unis, jusqu'au nord du Mexique.
+Il préfère les sols secs et bien drainés, dans les déserts ou les plaines arides. On le trouve généralement entre 300 et 900 m d'altitude, souvent en association avec la communauté végétale "Larrea tridentata".
 </t>
         </is>
       </c>
@@ -610,12 +628,52 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite par le médecin et botaniste d'origine allemande George Engelmann en 1856 dans "Proceedings of the American Academy of Arts and Sciences".
+Cette espèce a été appelée par certains auteurs Mammillaria microcarpa (Engelmann) ou Mammillaria milleri ((Britton &amp; Rose) Bödecker) ou encore Mammillaria oliviae (Orcutt). Elle a aussi reçu les appellations Cactus grahamii (Engelm.) Kuntze 1891 et Coryphantha grahamii (Engelm.) Rydb. 1917. En 1991, Roy Mottram a proposé de considérer ce cactus comme une sous-espèce, Mammillaria microcarpa ssp. grahamii, mais cette proposition est très généralement reconnue comme non valide.
+Elle présente deux variétés:
+Mammillaria grahamii var. grahamii (Engelm.)
+Mammillaria grahamii var. oliviae (Orcutt) Benson L.
+Ces deux variétés bénéficient de mesure de protection dans l'État de l'Arizona.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mammillaria_grahamii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mammillaria_grahamii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Statut et préservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mammillaria grahamii est protégé par le CITES en annexe II depuis 1975 et par l'Union européenne en annexe B depuis 1997[8].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mammillaria grahamii est protégé par le CITES en annexe II depuis 1975 et par l'Union européenne en annexe B depuis 1997.
 </t>
         </is>
       </c>
